--- a/qlearning/Episodic_learning_with_memory/payoffs.xlsx
+++ b/qlearning/Episodic_learning_with_memory/payoffs.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,502 +380,1227 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>59620</v>
+        <v>34687</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>89207</v>
+        <v>73981</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>12040</v>
+        <v>78665</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>89207</v>
+        <v>98645</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>89207</v>
+        <v>99592</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>89207</v>
+        <v>92889</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>89207</v>
+        <v>82468</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>89207</v>
+        <v>92860</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>89207</v>
+        <v>85632</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>89207</v>
+        <v>96170</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>89207</v>
+        <v>98218</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>89207</v>
+        <v>98634</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>89207</v>
+        <v>95566</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>89207</v>
+        <v>100080</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>89207</v>
+        <v>95810</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>89207</v>
+        <v>111108</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>89207</v>
+        <v>92963</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>89207</v>
+        <v>90542</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>89207</v>
+        <v>91372</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>89207</v>
+        <v>100601</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>89207</v>
+        <v>101872</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>89207</v>
+        <v>107001</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>89207</v>
+        <v>111568</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>89207</v>
+        <v>87229</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>89207</v>
+        <v>90002</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>89207</v>
+        <v>91612</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>89207</v>
+        <v>79085</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>89207</v>
+        <v>93384</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>89207</v>
+        <v>113506</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>89207</v>
+        <v>59204</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>89207</v>
+        <v>89503</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>89207</v>
+        <v>84989</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>89207</v>
+        <v>98121</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>89207</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>89207</v>
+        <v>99953</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>89207</v>
+        <v>80622</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>89207</v>
+        <v>91324</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>89207</v>
+        <v>109847</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>89207</v>
+        <v>109847</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>89207</v>
+        <v>102574</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>89207</v>
+        <v>104237</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>89207</v>
+        <v>85100</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>89207</v>
+        <v>85912</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>89207</v>
+        <v>96432</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>89207</v>
+        <v>83770</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>89207</v>
+        <v>114494</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>89207</v>
+        <v>84009</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>89207</v>
+        <v>98744</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>89207</v>
+        <v>99763</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>89207</v>
+        <v>105391</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>89207</v>
+        <v>84719</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>89207</v>
+        <v>107171</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>89207</v>
+        <v>99437</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>89207</v>
+        <v>104199</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>89207</v>
+        <v>98113</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>89207</v>
+        <v>116006</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>89207</v>
+        <v>84889</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>89207</v>
+        <v>126020</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>89207</v>
+        <v>80594</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>89207</v>
+        <v>80294</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>89207</v>
+        <v>92906</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>89207</v>
+        <v>74975</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>89207</v>
+        <v>100995</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>89207</v>
+        <v>103036</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>89207</v>
+        <v>95979</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>89207</v>
+        <v>76657</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>89207</v>
+        <v>93320</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>89207</v>
+        <v>75385</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>89207</v>
+        <v>93422</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>89207</v>
+        <v>70176</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>89207</v>
+        <v>103777</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>89207</v>
+        <v>80537</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>89207</v>
+        <v>81890</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>89207</v>
+        <v>78720</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>89207</v>
+        <v>73982</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>89207</v>
+        <v>93453</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>89207</v>
+        <v>86996</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>89207</v>
+        <v>88099</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>89207</v>
+        <v>88207</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>89207</v>
+        <v>97373</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>89207</v>
+        <v>76226</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>89207</v>
+        <v>59672</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>89207</v>
+        <v>98882</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>89207</v>
+        <v>79648</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>89207</v>
+        <v>83728</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>89207</v>
+        <v>67052</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>89207</v>
+        <v>93262</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>89207</v>
+        <v>86537</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>89207</v>
+        <v>89623</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>89207</v>
+        <v>57677</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>89207</v>
+        <v>66131</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>89207</v>
+        <v>80934</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>89207</v>
+        <v>91307</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>89207</v>
+        <v>94267</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>89207</v>
+        <v>101048</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>89207</v>
+        <v>89304</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>89207</v>
+        <v>88767</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>89207</v>
+        <v>71640</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>89207</v>
+        <v>86821</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>89207</v>
+        <v>97684</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>87383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>83423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>85114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>91503</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>93159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>88657</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>96503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>86487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>71046</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>88757</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>94668</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>96933</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>96680</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>93808</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>98082</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>87092</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>75971</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>80737</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>92827</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>84391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>91041</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>90635</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>105417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>89187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>95441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>99551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>90836</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>70328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>78568</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>84106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>94049</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>97726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>90899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>67465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>89699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>86155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>74137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>83270</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>89796</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>92032</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>100708</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>99556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>92206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>82238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>95978</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>99474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>96847</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>102475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>95811</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>102505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>93670</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>90480</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>95771</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>95333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>77781</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>103678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>81858</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>90072</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>100584</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>87759</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>94690</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>92362</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>93900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>78956</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>90143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>96729</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>86797</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>96735</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>95279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>93238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>102626</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>96909</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>84629</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>96620</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>67576</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>93461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>105379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>82944</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>91794</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>83263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>90201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>84690</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>94297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>98324</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>97236</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>93355</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>82744</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>101812</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>103381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>96862</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>89310</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>86759</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>91107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>99062</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>95395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>70790</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>77501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>103765</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>97667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>101128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>68478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>87482</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>88839</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>99664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>97703</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>91282</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>84677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>95794</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>96899</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>96595</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>104047</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>101726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>82732</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>95048</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>89796</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>97117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>103193</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>61911</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>94543</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>96505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>99399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>99975</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>102888</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>102280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>93776</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>96396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>85871</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>96706</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>104940</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>90926</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>91242</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>91318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>91373</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>98267</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>100162</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>103032</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>49742</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>96532</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>88257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>100993</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>102487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>93311</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>92941</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,502 +1623,1227 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>36087</v>
+        <v>79941</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>53712</v>
+        <v>70645</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2756</v>
+        <v>101521</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>54176</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>54176</v>
+        <v>84035</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>54176</v>
+        <v>91975</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>51573</v>
+        <v>81975</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>51573</v>
+        <v>98432</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>51573</v>
+        <v>97482</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>51298</v>
+        <v>99178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>51298</v>
+        <v>92285</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>51298</v>
+        <v>96046</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>51298</v>
+        <v>68512</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>51298</v>
+        <v>105736</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>51336</v>
+        <v>64602</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>51336</v>
+        <v>85837</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>49586</v>
+        <v>94590</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>49586</v>
+        <v>94991</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>49586</v>
+        <v>98799</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>50712</v>
+        <v>102214</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>50712</v>
+        <v>105037</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>50712</v>
+        <v>94888</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>50712</v>
+        <v>96090</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>50712</v>
+        <v>77804</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>50712</v>
+        <v>71446</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>50712</v>
+        <v>88551</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>50712</v>
+        <v>97288</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>50712</v>
+        <v>81910</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>50712</v>
+        <v>97466</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>49478</v>
+        <v>106316</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>49478</v>
+        <v>104954</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>49478</v>
+        <v>105401</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>49478</v>
+        <v>88237</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>49478</v>
+        <v>106707</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>49478</v>
+        <v>106348</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>49478</v>
+        <v>88378</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>49478</v>
+        <v>100303</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>49478</v>
+        <v>100312</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>49478</v>
+        <v>99063</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>49478</v>
+        <v>100620</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>49478</v>
+        <v>99054</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>49478</v>
+        <v>100340</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>49478</v>
+        <v>99218</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>49074</v>
+        <v>101575</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>49074</v>
+        <v>100141</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>62483</v>
+        <v>101752</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>62483</v>
+        <v>99816</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>62483</v>
+        <v>94135</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>62483</v>
+        <v>94845</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>62483</v>
+        <v>95373</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>62483</v>
+        <v>94776</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>62483</v>
+        <v>96068</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>62483</v>
+        <v>95768</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>62483</v>
+        <v>110675</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>62483</v>
+        <v>93863</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>62483</v>
+        <v>109634</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>62483</v>
+        <v>110741</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>62483</v>
+        <v>116447</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>62483</v>
+        <v>129385</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>62483</v>
+        <v>132503</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>62483</v>
+        <v>131876</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>62483</v>
+        <v>133196</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>62483</v>
+        <v>133716</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>62483</v>
+        <v>134353</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>62483</v>
+        <v>135481</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>62483</v>
+        <v>135496</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>62483</v>
+        <v>135886</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>62483</v>
+        <v>135854</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>62483</v>
+        <v>136431</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>62483</v>
+        <v>136555</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>62483</v>
+        <v>136431</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>62483</v>
+        <v>136983</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>62483</v>
+        <v>137459</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>61814</v>
+        <v>137559</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>61814</v>
+        <v>138064</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>61814</v>
+        <v>138275</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>61814</v>
+        <v>138274</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>61814</v>
+        <v>138353</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>61814</v>
+        <v>138658</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>61072</v>
+        <v>138673</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>61072</v>
+        <v>138673</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>61072</v>
+        <v>138673</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>61072</v>
+        <v>138726</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>61072</v>
+        <v>138726</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>61072</v>
+        <v>138726</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>61072</v>
+        <v>138726</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>61072</v>
+        <v>138726</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>61072</v>
+        <v>138737</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>61072</v>
+        <v>138737</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>61072</v>
+        <v>138752</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>61072</v>
+        <v>138752</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>59020</v>
+        <v>138796</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>59020</v>
+        <v>138826</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>59020</v>
+        <v>138826</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>59020</v>
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>138826</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>138826</v>
       </c>
     </row>
   </sheetData>
